--- a/JBUH/감염병_CDM_ETL정의서.xlsx
+++ b/JBUH/감염병_CDM_ETL정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B65BFE6-5487-4155-9B5B-1854229429B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7C4E9-794B-4EB3-8E2A-B4A2F560899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="793">
   <si>
     <t>필드명</t>
   </si>
@@ -2136,9 +2136,6 @@
   </si>
   <si>
     <t>ORDDATE</t>
-  </si>
-  <si>
-    <t>ORDDATE + DAY + 1</t>
   </si>
   <si>
     <t>CONQTY * CNT * DAY</t>
@@ -3030,6 +3027,49 @@
   </si>
   <si>
     <t>PERSON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABO혈액형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RH혈액형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료부서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병동번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARDNO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDDATE + DAY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병동명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARE_SITE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>병동번호에 해당하는 명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3371,7 +3411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3522,9 +3562,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3560,6 +3597,33 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4101,87 +4165,87 @@
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>691</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F3" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>693</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
@@ -4191,18 +4255,18 @@
         <v>499</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
@@ -4212,225 +4276,225 @@
         <v>499</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4449,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4466,7 +4530,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>116</v>
@@ -4487,7 +4551,7 @@
         <v>354</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -4549,7 +4613,7 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
@@ -4567,7 +4631,7 @@
         <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>399</v>
@@ -4624,49 +4688,49 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:8" s="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="65" t="s">
+        <v>788</v>
+      </c>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:8" s="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="G9" s="65" t="s">
+        <v>788</v>
+      </c>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -4680,7 +4744,7 @@
         <v>208</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
@@ -4701,14 +4765,14 @@
       <c r="D11" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>732</v>
+      <c r="E11" s="56" t="s">
+        <v>731</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -4723,11 +4787,11 @@
       <c r="D12" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>731</v>
+      <c r="E12" s="56" t="s">
+        <v>730</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>515</v>
@@ -4746,7 +4810,7 @@
         <v>209</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="13" t="s">
@@ -4766,7 +4830,7 @@
         <v>210</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="13" t="s">
@@ -4792,7 +4856,7 @@
         <v>476</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -4814,7 +4878,7 @@
         <v>476</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -4830,7 +4894,7 @@
         <v>213</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="13" t="s">
@@ -4852,7 +4916,7 @@
         <v>214</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="13" t="s">
@@ -4872,7 +4936,7 @@
         <v>215</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="13" t="s">
@@ -4913,13 +4977,13 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>550</v>
@@ -4937,7 +5001,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>324</v>
@@ -4961,10 +5025,10 @@
         <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="13" t="s">
@@ -5012,29 +5076,29 @@
         <v>476</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -5049,16 +5113,16 @@
         <v>109</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>635</v>
-      </c>
       <c r="F27" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -5074,7 +5138,7 @@
         <v>218</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="13" t="s">
@@ -5100,7 +5164,7 @@
         <v>476</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H29" s="24"/>
     </row>
@@ -5114,11 +5178,11 @@
         <v>417</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H30" s="24"/>
     </row>
@@ -5203,7 +5267,7 @@
         <v>451</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>537</v>
@@ -5212,23 +5276,23 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>605</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>606</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H35" s="24"/>
     </row>
@@ -5250,7 +5314,7 @@
         <v>476</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H36" s="24"/>
     </row>
@@ -5272,7 +5336,7 @@
         <v>476</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -5294,7 +5358,7 @@
         <v>476</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -5316,7 +5380,7 @@
         <v>476</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -5338,7 +5402,7 @@
         <v>476</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H40" s="24"/>
     </row>
@@ -5360,29 +5424,29 @@
         <v>476</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H42" s="24"/>
     </row>
@@ -5401,10 +5465,10 @@
         <v>409</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H43" s="24"/>
     </row>
@@ -5423,32 +5487,32 @@
         <v>410</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>455</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H45" s="24"/>
     </row>
@@ -5464,7 +5528,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5498,11 +5562,11 @@
       <c r="F1" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>354</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -5523,7 +5587,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="60"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -5547,7 +5611,7 @@
       <c r="G3" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -5564,12 +5628,12 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" s="14" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -5582,18 +5646,18 @@
         <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>494</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="H5" s="60"/>
+        <v>570</v>
+      </c>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -5607,15 +5671,15 @@
         <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>494</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="H6" s="60"/>
+        <v>571</v>
+      </c>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -5629,15 +5693,15 @@
         <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>494</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="60"/>
+        <v>571</v>
+      </c>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -5651,11 +5715,11 @@
         <v>225</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="60"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -5675,7 +5739,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="60"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -5692,12 +5756,12 @@
         <v>345</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5710,18 +5774,18 @@
         <v>109</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>496</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="H11" s="60"/>
+        <v>572</v>
+      </c>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -5732,18 +5796,18 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>444</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -5754,7 +5818,7 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>328</v>
@@ -5763,9 +5827,9 @@
         <v>494</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="H13" s="60"/>
+        <v>573</v>
+      </c>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -5787,9 +5851,9 @@
         <v>497</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="H14" s="60"/>
+        <v>572</v>
+      </c>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -5806,12 +5870,12 @@
         <v>442</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="H15" s="60"/>
+      <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
@@ -5827,19 +5891,19 @@
         <v>227</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>495</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="H16" s="60"/>
+        <v>574</v>
+      </c>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>412</v>
@@ -5852,12 +5916,12 @@
         <v>413</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="H17" s="60"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -5877,9 +5941,9 @@
         <v>495</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="H18" s="60"/>
+        <v>575</v>
+      </c>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -5899,9 +5963,9 @@
         <v>495</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="H19" s="60"/>
+        <v>576</v>
+      </c>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -5923,9 +5987,9 @@
         <v>494</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="H20" s="60"/>
+        <v>577</v>
+      </c>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -5936,16 +6000,16 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
@@ -5958,14 +6022,14 @@
         <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>331</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="60"/>
+      <c r="H22" s="59"/>
     </row>
     <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
@@ -5978,14 +6042,14 @@
         <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="60"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -6005,9 +6069,9 @@
         <v>496</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="H24" s="60"/>
+        <v>570</v>
+      </c>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
@@ -6027,31 +6091,31 @@
         <v>496</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="H25" s="60"/>
+        <v>600</v>
+      </c>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="H26" s="60"/>
+        <v>636</v>
+      </c>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
@@ -6071,7 +6135,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="60"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
@@ -6084,16 +6148,16 @@
       <c r="D28" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="56" t="s">
         <v>333</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>496</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="H28" s="60"/>
+        <v>574</v>
+      </c>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
@@ -6106,14 +6170,14 @@
       <c r="D29" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>334</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>494</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H29" s="21"/>
     </row>
@@ -6197,7 +6261,7 @@
         <v>496</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -6260,7 +6324,7 @@
         <v>451</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>537</v>
@@ -6291,133 +6355,133 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>614</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -6439,7 +6503,7 @@
         <v>496</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -6461,29 +6525,29 @@
         <v>496</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -6498,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6572,7 +6636,7 @@
         <v>273</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>525</v>
@@ -6593,7 +6657,7 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
@@ -6616,7 +6680,7 @@
         <v>326</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>558</v>
@@ -6637,10 +6701,10 @@
         <v>335</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.3">
@@ -6658,25 +6722,25 @@
         <v>336</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6694,14 +6758,14 @@
       <c r="D9" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>346</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
@@ -6713,11 +6777,11 @@
       <c r="D10" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="60" t="s">
         <v>447</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>515</v>
@@ -6737,7 +6801,7 @@
         <v>239</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -6756,7 +6820,7 @@
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
@@ -6776,14 +6840,14 @@
       <c r="D13" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>382</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -6799,7 +6863,7 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>550</v>
@@ -6816,7 +6880,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>337</v>
@@ -6837,10 +6901,10 @@
         <v>109</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
@@ -6862,10 +6926,10 @@
         <v>338</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -6881,31 +6945,31 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -6941,7 +7005,7 @@
         <v>243</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
@@ -6962,7 +7026,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -6980,7 +7044,7 @@
         <v>398</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>554</v>
@@ -7025,7 +7089,7 @@
         <v>496</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -7043,7 +7107,7 @@
         <v>468</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>555</v>
@@ -7064,7 +7128,7 @@
         <v>450</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>531</v>
@@ -7085,7 +7149,7 @@
         <v>451</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>537</v>
@@ -7106,10 +7170,10 @@
         <v>480</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -7127,7 +7191,7 @@
         <v>506</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>558</v>
@@ -7135,212 +7199,212 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>507</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>476</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>614</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>580</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>583</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>496</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -7355,7 +7419,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7394,7 +7458,7 @@
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>102</v>
@@ -7403,10 +7467,10 @@
         <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7422,13 +7486,13 @@
         <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>646</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>647</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>29</v>
@@ -7436,59 +7500,59 @@
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7542,7 +7606,7 @@
         <v>354</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7564,7 +7628,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -7669,7 +7733,7 @@
         <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>351</v>
@@ -7691,7 +7755,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7729,7 +7793,7 @@
         <v>354</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -7784,7 +7848,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="13" t="s">
@@ -7804,7 +7868,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13" t="s">
@@ -7829,13 +7893,13 @@
         <v>341</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -7850,10 +7914,10 @@
         <v>425</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>515</v>
@@ -7918,7 +7982,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
@@ -8048,7 +8112,7 @@
         <v>140</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="13" t="s">
@@ -8089,7 +8153,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8126,7 +8190,7 @@
         <v>354</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
@@ -8160,7 +8224,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>265</v>
@@ -8273,7 +8337,7 @@
         <v>359</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>357</v>
@@ -8292,10 +8356,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>357</v>
@@ -8319,7 +8383,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="17" t="s">
@@ -8338,7 +8402,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>392</v>
@@ -8362,10 +8426,10 @@
         <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="17" t="s">
@@ -8387,7 +8451,7 @@
         <v>114</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>358</v>
@@ -8406,7 +8470,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>271</v>
@@ -8450,7 +8514,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>272</v>
@@ -8474,7 +8538,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>270</v>
@@ -8496,10 +8560,10 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>357</v>
@@ -8520,10 +8584,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>357</v>
@@ -8542,10 +8606,10 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="17" t="s">
@@ -8564,10 +8628,10 @@
         <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="17" t="s">
@@ -8583,8 +8647,12 @@
         <v>455</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="F22" s="19" t="s">
         <v>357</v>
       </c>
@@ -8601,8 +8669,12 @@
         <v>455</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>783</v>
+      </c>
       <c r="F23" s="19" t="s">
         <v>357</v>
       </c>
@@ -8776,8 +8848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8827,7 +8899,7 @@
       <c r="D2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="19"/>
@@ -8871,26 +8943,26 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>294</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -8901,14 +8973,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>162</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -8922,17 +8994,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>296</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -8943,17 +9015,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>297</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -8964,17 +9036,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="50" t="s">
         <v>298</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -8985,16 +9057,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>244</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -9008,46 +9080,46 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51" t="s">
         <v>428</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>429</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="54" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9064,7 +9136,7 @@
       <c r="D13" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>301</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -9085,7 +9157,7 @@
       <c r="D14" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>348</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -9108,7 +9180,7 @@
       <c r="D15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>302</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -9129,7 +9201,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>342</v>
@@ -9142,18 +9214,18 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>723</v>
+      <c r="E17" s="55" t="s">
+        <v>722</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>360</v>
@@ -9173,9 +9245,9 @@
         <v>109</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="E18" s="56" t="s">
+        <v>763</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>343</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -9196,8 +9268,8 @@
       <c r="D19" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>724</v>
+      <c r="E19" s="55" t="s">
+        <v>723</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>360</v>
@@ -9256,8 +9328,12 @@
         <v>448</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="F22" s="19" t="s">
         <v>362</v>
       </c>
@@ -9273,10 +9349,14 @@
         <v>448</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>537</v>
@@ -9292,10 +9372,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9389,7 +9469,7 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
@@ -9514,7 +9594,7 @@
         <v>244</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
@@ -9533,10 +9613,10 @@
         <v>428</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>515</v>
@@ -9588,229 +9668,279 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="68" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="F16" s="64" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="65" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>765</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="66" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="68" t="s">
         <v>726</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="13" t="s">
+      <c r="F21" s="64"/>
+      <c r="G21" s="65" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="F18" s="19" t="s">
+    <row r="22" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>537</v>
+      <c r="G25" s="62" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>791</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62" t="s">
+        <v>792</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>792</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -9862,416 +9992,416 @@
         <v>354</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>700</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>703</v>
-      </c>
       <c r="F3" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>415</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -10386,7 +10516,7 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
@@ -10403,7 +10533,7 @@
         <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>313</v>
@@ -10469,7 +10599,7 @@
         <v>197</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>479</v>
@@ -10490,13 +10620,13 @@
         <v>198</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>479</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
@@ -10512,7 +10642,7 @@
       <c r="D10" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>316</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -10533,11 +10663,11 @@
       <c r="D11" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>434</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>515</v>
@@ -10556,7 +10686,7 @@
       <c r="D12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="57" t="s">
         <v>317</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -10578,7 +10708,7 @@
         <v>401</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="13" t="s">
@@ -10617,13 +10747,13 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>462</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>550</v>
@@ -10640,10 +10770,10 @@
         <v>109</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>773</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>361</v>
@@ -10663,10 +10793,10 @@
         <v>109</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>366</v>
@@ -10698,7 +10828,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>402</v>
@@ -10728,16 +10858,16 @@
         <v>109</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>313</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -10749,7 +10879,7 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>400</v>
@@ -10839,7 +10969,7 @@
         <v>451</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>537</v>

--- a/JBUH/감염병_CDM_ETL정의서.xlsx
+++ b/JBUH/감염병_CDM_ETL정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7C4E9-794B-4EB3-8E2A-B4A2F560899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD1209-C643-4037-B008-DF9E6A0587B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="794">
   <si>
     <t>필드명</t>
   </si>
@@ -3070,6 +3070,27 @@
   </si>
   <si>
     <t>병동번호에 해당하는 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병동번호에 해당하는 데이터만 포함
+deptcode deptlnm
+1002 ICU(본관중환자실)
+1003 외과계중환자실(SICU)
+1004 MICU(내과계중환자실)_사용안함
+1005 신생아집중치료실(NICU)
+2002 신경계중환자실(NCU)
+2003 응급전용중환자실(EICU)
+2004 내과계중환자실(MICU)
+2007 EICU(MICU임시)
+2008 심장계중환자실(CCU)
+5002 소아집중치료실(PICU)
+5004 산모태아집중치료실(MFICU)
+6002 SUB-ICU
+ICU1 본관중환자실1
+ICU2 본관중환자실2
+ICU3 본관중환자실3
+SI 외과중환자실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3411,7 +3432,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3598,31 +3619,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4513,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4688,49 +4685,49 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:8" s="70" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -9374,8 +9371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9668,278 +9665,278 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="13" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="13" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="66" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="13" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="13" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>786</v>
-      </c>
-      <c r="F25" s="62" t="s">
+      <c r="E25" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="2" t="s">
         <v>790</v>
       </c>
     </row>

--- a/JBUH/감염병_CDM_ETL정의서.xlsx
+++ b/JBUH/감염병_CDM_ETL정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD1209-C643-4037-B008-DF9E6A0587B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E239D1D-858B-4CAE-9693-6D20A7D2DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="794">
   <si>
     <t>필드명</t>
   </si>
@@ -3051,10 +3051,6 @@
   </si>
   <si>
     <t>WARDNO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDDATE + DAY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3091,6 +3087,10 @@
 ICU2 본관중환자실2
 ICU3 본관중환자실3
 SI 외과중환자실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDDATE + DAY - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4510,8 +4510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4703,7 +4703,7 @@
         <v>476</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -4725,7 +4725,7 @@
         <v>476</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -9371,7 +9371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -9903,14 +9903,14 @@
         <v>786</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>786</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>364</v>
@@ -9921,23 +9921,23 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>779</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/JBUH/감염병_CDM_ETL정의서.xlsx
+++ b/JBUH/감염병_CDM_ETL정의서.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E239D1D-858B-4CAE-9693-6D20A7D2DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC6B7A-0068-4107-9FE0-86CEE014B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LOCATION" sheetId="2" r:id="rId1"/>
-    <sheet name="CARE_SITE" sheetId="3" r:id="rId2"/>
-    <sheet name="PROVIDER" sheetId="4" r:id="rId3"/>
-    <sheet name="PERSON" sheetId="1" r:id="rId4"/>
-    <sheet name="DEATH" sheetId="14" state="hidden" r:id="rId5"/>
-    <sheet name="VISIT_OCCURRENCE" sheetId="5" r:id="rId6"/>
-    <sheet name="VISIT_DETAIL" sheetId="16" r:id="rId7"/>
-    <sheet name="LOCAL_KCD" sheetId="20" r:id="rId8"/>
-    <sheet name="CONDITION_OCCURRENCE" sheetId="6" r:id="rId9"/>
-    <sheet name="LOCAL_EDI" sheetId="19" r:id="rId10"/>
-    <sheet name="DRUG_EXPOSURE" sheetId="13" r:id="rId11"/>
-    <sheet name="MEASUREMENT" sheetId="7" r:id="rId12"/>
-    <sheet name="PROCEDURE_OCCURRENCE" sheetId="9" r:id="rId13"/>
-    <sheet name="OBSERVATION_PERIOD" sheetId="18" r:id="rId14"/>
+    <sheet name="테이블정의" sheetId="22" r:id="rId1"/>
+    <sheet name="LOCATION" sheetId="2" r:id="rId2"/>
+    <sheet name="CARE_SITE" sheetId="3" r:id="rId3"/>
+    <sheet name="PROVIDER" sheetId="4" r:id="rId4"/>
+    <sheet name="PERSON" sheetId="1" r:id="rId5"/>
+    <sheet name="DEATH" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="VISIT_OCCURRENCE" sheetId="5" r:id="rId7"/>
+    <sheet name="VISIT_DETAIL" sheetId="16" r:id="rId8"/>
+    <sheet name="LOCAL_KCD" sheetId="20" r:id="rId9"/>
+    <sheet name="CONDITION_OCCURRENCE" sheetId="6" r:id="rId10"/>
+    <sheet name="LOCAL_EDI" sheetId="19" r:id="rId11"/>
+    <sheet name="DRUG_EXPOSURE" sheetId="13" r:id="rId12"/>
+    <sheet name="MEASUREMENT" sheetId="7" r:id="rId13"/>
+    <sheet name="PROCEDURE_OCCURRENCE" sheetId="9" r:id="rId14"/>
+    <sheet name="OBSERVATION_PERIOD" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="834">
   <si>
     <t>필드명</t>
   </si>
@@ -2444,10 +2445,6 @@
   </si>
   <si>
     <t>LOCAL_EDI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>measurement_source_value에 대한 EDI코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3093,12 +3090,167 @@
     <t>ORDDATE + DAY - 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자기본정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료진기본정보</t>
+  </si>
+  <si>
+    <t>VISIT_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자내원세부정보</t>
+  </si>
+  <si>
+    <t>VISIT_OCCURRENCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자내원기록정보</t>
+  </si>
+  <si>
+    <t>CONDITION_OCCURRENCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자상태진단정보</t>
+  </si>
+  <si>
+    <t>DRUG_EXPOSURE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자처방약정보</t>
+  </si>
+  <si>
+    <t>MEASUREMENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자검사결과정보</t>
+  </si>
+  <si>
+    <t>PROCEDURE_OCCURRENCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자처치정보</t>
+  </si>
+  <si>
+    <t>OBSERVATION_PERIOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자관찰기간정보</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ohdsi-korea/ThemisKorea/tree/master/location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION_ERA</t>
+  </si>
+  <si>
+    <t>DRUG_ERA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료부서정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICU입퇴실 내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진단검사, 병리검사, 활력징후 데이터 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상검사, 수술, 처치 처방 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDM테이블 중 visit_occurrence, condition_occurrence, drug_exposure, measurement, procedure_occurrence 테이블에서 START_DATE(최소값), END_DATE(최대값)으로 정함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_occurrence테이블 통해 파생되는  데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug_exposure테이블을 통해 파생되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_KCD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상병코드 매핑정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원내 상병코드와 KCD concept_id간의 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방코드 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원내 처방코드와 EDI OR KDC concept_id간의 매핑 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료 제공자 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R/O받은 환자는 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/C처방은 제외</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 검사의 EDI코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure_source_concept_id의 vocabulary값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3254,6 +3406,30 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3425,14 +3601,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3622,11 +3801,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3921,206 +4119,837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB31AC48-ABAC-4E75-B472-427DCF739CE6}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="67" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>795</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>800</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="63">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>798</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="63">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>825</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="63">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B10" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>827</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="B11" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B12" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B13" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5">
+      <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B14" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>810</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B15" s="66" t="s">
+        <v>813</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>293</v>
+      <c r="B16" s="66" t="s">
+        <v>814</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{8AC34C62-3332-42BC-BD8C-16D93D336DD8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="27">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27">
+      <c r="A9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27">
+      <c r="A11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27">
+      <c r="A22" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FC6F00-602B-4985-806C-B82370F30C41}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -4130,7 +4959,7 @@
     <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4982,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
         <v>557</v>
       </c>
@@ -4162,61 +4991,61 @@
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="33">
       <c r="A3" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F3" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
         <v>635</v>
       </c>
@@ -4225,24 +5054,24 @@
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21" t="s">
@@ -4252,18 +5081,18 @@
         <v>499</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
@@ -4273,225 +5102,225 @@
         <v>499</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G8" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="21" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>659</v>
-      </c>
       <c r="B9" s="49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="21" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>660</v>
-      </c>
       <c r="B10" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="21" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>661</v>
-      </c>
       <c r="B11" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="21" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>662</v>
-      </c>
       <c r="B12" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G12" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="21" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>663</v>
-      </c>
       <c r="B13" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21" t="s">
         <v>663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>664</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>666</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G16" s="21" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>667</v>
-      </c>
       <c r="B17" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>668</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -4506,15 +5335,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -4525,9 +5354,9 @@
     <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>116</v>
@@ -4551,7 +5380,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="9" t="s">
         <v>411</v>
       </c>
@@ -4571,7 +5400,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -4595,7 +5424,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -4610,14 +5439,14 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
@@ -4628,7 +5457,7 @@
         <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>399</v>
@@ -4641,7 +5470,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -4663,7 +5492,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A7" s="9" t="s">
         <v>377</v>
       </c>
@@ -4685,7 +5514,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4703,11 +5532,11 @@
         <v>476</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
@@ -4725,11 +5554,11 @@
         <v>476</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -4741,7 +5570,7 @@
         <v>208</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
@@ -4749,7 +5578,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
@@ -4763,7 +5592,7 @@
         <v>244</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>626</v>
@@ -4773,7 +5602,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A12" s="9" t="s">
         <v>435</v>
       </c>
@@ -4785,7 +5614,7 @@
         <v>436</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>626</v>
@@ -4795,7 +5624,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -4807,7 +5636,7 @@
         <v>209</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="13" t="s">
@@ -4815,7 +5644,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
@@ -4827,7 +5656,7 @@
         <v>210</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="13" t="s">
@@ -4835,7 +5664,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A15" s="9" t="s">
         <v>378</v>
       </c>
@@ -4857,7 +5686,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A16" s="9" t="s">
         <v>379</v>
       </c>
@@ -4879,7 +5708,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -4891,7 +5720,7 @@
         <v>213</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="13" t="s">
@@ -4899,7 +5728,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A18" s="9" t="s">
         <v>77</v>
       </c>
@@ -4913,7 +5742,7 @@
         <v>214</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="13" t="s">
@@ -4921,7 +5750,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A19" s="9" t="s">
         <v>79</v>
       </c>
@@ -4933,7 +5762,7 @@
         <v>215</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="13" t="s">
@@ -4941,7 +5770,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -4965,7 +5794,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A21" s="9" t="s">
         <v>470</v>
       </c>
@@ -4977,17 +5806,17 @@
         <v>592</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>550</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -4998,7 +5827,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>324</v>
@@ -5011,7 +5840,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A23" s="9" t="s">
         <v>90</v>
       </c>
@@ -5022,10 +5851,10 @@
         <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="13" t="s">
@@ -5033,7 +5862,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -5055,7 +5884,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A25" s="9" t="s">
         <v>404</v>
       </c>
@@ -5077,7 +5906,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A26" s="9" t="s">
         <v>631</v>
       </c>
@@ -5099,7 +5928,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -5123,7 +5952,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -5135,7 +5964,7 @@
         <v>218</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="13" t="s">
@@ -5143,7 +5972,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -5165,7 +5994,7 @@
       </c>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
         <v>380</v>
       </c>
@@ -5175,7 +6004,7 @@
         <v>417</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
@@ -5183,7 +6012,7 @@
       </c>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="27">
       <c r="A31" s="9" t="s">
         <v>396</v>
       </c>
@@ -5205,7 +6034,7 @@
       </c>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
         <v>467</v>
       </c>
@@ -5227,7 +6056,7 @@
       </c>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>450</v>
       </c>
@@ -5249,7 +6078,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>451</v>
       </c>
@@ -5264,14 +6093,14 @@
         <v>451</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>537</v>
       </c>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
         <v>604</v>
       </c>
@@ -5293,7 +6122,7 @@
       </c>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
         <v>480</v>
       </c>
@@ -5315,7 +6144,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>482</v>
       </c>
@@ -5337,7 +6166,7 @@
       </c>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>483</v>
       </c>
@@ -5359,7 +6188,7 @@
       </c>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>484</v>
       </c>
@@ -5381,7 +6210,7 @@
       </c>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>485</v>
       </c>
@@ -5403,7 +6232,7 @@
       </c>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>486</v>
       </c>
@@ -5425,7 +6254,7 @@
       </c>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>597</v>
       </c>
@@ -5447,7 +6276,7 @@
       </c>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="9" t="s">
         <v>407</v>
       </c>
@@ -5469,7 +6298,7 @@
       </c>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="9" t="s">
         <v>408</v>
       </c>
@@ -5491,7 +6320,7 @@
       </c>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
         <v>601</v>
       </c>
@@ -5520,15 +6349,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -5540,7 +6369,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5566,7 +6395,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -5586,7 +6415,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="59"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="57" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -5610,7 +6439,7 @@
       </c>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -5625,14 +6454,14 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>474</v>
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="148.5">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -5643,10 +6472,10 @@
         <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>494</v>
@@ -5656,7 +6485,7 @@
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="54">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -5678,7 +6507,7 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="54">
       <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
@@ -5700,7 +6529,7 @@
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
@@ -5712,13 +6541,13 @@
         <v>225</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="16"/>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -5738,7 +6567,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="59"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A10" s="9" t="s">
         <v>437</v>
       </c>
@@ -5753,14 +6582,14 @@
         <v>345</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>515</v>
       </c>
       <c r="H10" s="59"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="67.5">
       <c r="A11" s="9" t="s">
         <v>443</v>
       </c>
@@ -5771,7 +6600,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>622</v>
@@ -5784,7 +6613,7 @@
       </c>
       <c r="H11" s="59"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A12" s="9" t="s">
         <v>440</v>
       </c>
@@ -5793,20 +6622,20 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>444</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>515</v>
       </c>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="40.5">
       <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
@@ -5815,7 +6644,7 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>328</v>
@@ -5828,7 +6657,7 @@
       </c>
       <c r="H13" s="59"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="40.5">
       <c r="A14" s="9" t="s">
         <v>441</v>
       </c>
@@ -5852,7 +6681,7 @@
       </c>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A15" s="9" t="s">
         <v>439</v>
       </c>
@@ -5867,14 +6696,14 @@
         <v>442</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>515</v>
       </c>
       <c r="H15" s="59"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A16" s="9" t="s">
         <v>221</v>
       </c>
@@ -5888,7 +6717,7 @@
         <v>227</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>495</v>
@@ -5898,9 +6727,9 @@
       </c>
       <c r="H16" s="59"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A17" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>412</v>
@@ -5913,14 +6742,14 @@
         <v>413</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>515</v>
       </c>
       <c r="H17" s="59"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -5942,7 +6771,7 @@
       </c>
       <c r="H18" s="59"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
@@ -5964,7 +6793,7 @@
       </c>
       <c r="H19" s="59"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="27">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -5988,7 +6817,7 @@
       </c>
       <c r="H20" s="59"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A21" s="9" t="s">
         <v>470</v>
       </c>
@@ -6001,14 +6830,14 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>550</v>
       </c>
       <c r="H21" s="59"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -6019,7 +6848,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>331</v>
@@ -6028,7 +6857,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A23" s="9" t="s">
         <v>90</v>
       </c>
@@ -6039,16 +6868,16 @@
         <v>109</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="16"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="40.5">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -6070,7 +6899,7 @@
       </c>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A25" s="9" t="s">
         <v>414</v>
       </c>
@@ -6092,19 +6921,19 @@
       </c>
       <c r="H25" s="59"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A26" s="9" t="s">
         <v>631</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>638</v>
+        <v>832</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>638</v>
+        <v>832</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>637</v>
@@ -6114,7 +6943,7 @@
       </c>
       <c r="H26" s="59"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -6134,7 +6963,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="59"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5">
       <c r="A28" s="9" t="s">
         <v>93</v>
       </c>
@@ -6156,7 +6985,7 @@
       </c>
       <c r="H28" s="59"/>
     </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="40.5">
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
@@ -6178,7 +7007,7 @@
       </c>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="9" t="s">
         <v>380</v>
       </c>
@@ -6196,7 +7025,7 @@
       </c>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="27">
       <c r="A31" s="9" t="s">
         <v>396</v>
       </c>
@@ -6218,7 +7047,7 @@
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="9" t="s">
         <v>498</v>
       </c>
@@ -6240,7 +7069,7 @@
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="9" t="s">
         <v>499</v>
       </c>
@@ -6262,7 +7091,7 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="9" t="s">
         <v>467</v>
       </c>
@@ -6284,7 +7113,7 @@
       </c>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="9" t="s">
         <v>450</v>
       </c>
@@ -6306,7 +7135,7 @@
       </c>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="9" t="s">
         <v>451</v>
       </c>
@@ -6321,14 +7150,14 @@
         <v>451</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>537</v>
       </c>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>506</v>
       </c>
@@ -6350,7 +7179,7 @@
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="9" t="s">
         <v>604</v>
       </c>
@@ -6372,7 +7201,7 @@
       </c>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>609</v>
       </c>
@@ -6394,7 +7223,7 @@
       </c>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>610</v>
       </c>
@@ -6416,7 +7245,7 @@
       </c>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="9" t="s">
         <v>611</v>
       </c>
@@ -6438,7 +7267,7 @@
       </c>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
         <v>612</v>
       </c>
@@ -6460,7 +7289,7 @@
       </c>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="9" t="s">
         <v>597</v>
       </c>
@@ -6482,7 +7311,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="9" t="s">
         <v>509</v>
       </c>
@@ -6504,7 +7333,7 @@
       </c>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="9" t="s">
         <v>510</v>
       </c>
@@ -6526,7 +7355,7 @@
       </c>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
         <v>580</v>
       </c>
@@ -6555,15 +7384,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -6574,7 +7403,7 @@
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +7426,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -6616,7 +7445,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -6639,7 +7468,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -6654,13 +7483,13 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -6683,7 +7512,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="54">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -6704,7 +7533,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="54">
       <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
@@ -6725,7 +7554,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A8" s="9" t="s">
         <v>623</v>
       </c>
@@ -6742,7 +7571,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A9" s="9" t="s">
         <v>446</v>
       </c>
@@ -6765,7 +7594,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A10" s="9" t="s">
         <v>445</v>
       </c>
@@ -6784,7 +7613,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A11" s="9" t="s">
         <v>65</v>
       </c>
@@ -6798,14 +7627,14 @@
         <v>239</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -6817,14 +7646,14 @@
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -6847,7 +7676,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A14" s="9" t="s">
         <v>470</v>
       </c>
@@ -6860,13 +7689,13 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -6877,7 +7706,7 @@
         <v>109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>337</v>
@@ -6887,7 +7716,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
@@ -6898,17 +7727,17 @@
         <v>109</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="27">
       <c r="A17" s="9" t="s">
         <v>419</v>
       </c>
@@ -6929,7 +7758,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A18" s="9" t="s">
         <v>420</v>
       </c>
@@ -6948,7 +7777,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A19" s="9" t="s">
         <v>631</v>
       </c>
@@ -6957,10 +7786,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>637</v>
@@ -6969,7 +7798,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5">
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
@@ -6990,7 +7819,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
         <v>86</v>
       </c>
@@ -7002,14 +7831,14 @@
         <v>243</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
         <v>380</v>
       </c>
@@ -7018,15 +7847,17 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="27">
       <c r="A23" s="9" t="s">
         <v>396</v>
       </c>
@@ -7047,7 +7878,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>498</v>
       </c>
@@ -7068,7 +7899,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>499</v>
       </c>
@@ -7089,7 +7920,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="27">
       <c r="A26" s="9" t="s">
         <v>467</v>
       </c>
@@ -7110,7 +7941,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="27">
       <c r="A27" s="9" t="s">
         <v>450</v>
       </c>
@@ -7131,7 +7962,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
         <v>451</v>
       </c>
@@ -7146,13 +7977,13 @@
         <v>451</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="9" t="s">
         <v>480</v>
       </c>
@@ -7173,7 +8004,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="27">
       <c r="A30" s="9" t="s">
         <v>506</v>
       </c>
@@ -7194,7 +8025,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
         <v>586</v>
       </c>
@@ -7215,7 +8046,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="27">
       <c r="A32" s="9" t="s">
         <v>604</v>
       </c>
@@ -7236,7 +8067,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
         <v>609</v>
       </c>
@@ -7257,7 +8088,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>610</v>
       </c>
@@ -7278,7 +8109,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
         <v>611</v>
       </c>
@@ -7299,7 +8130,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
         <v>612</v>
       </c>
@@ -7320,7 +8151,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="9" t="s">
         <v>597</v>
       </c>
@@ -7341,7 +8172,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
         <v>580</v>
       </c>
@@ -7362,7 +8193,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
         <v>581</v>
       </c>
@@ -7383,7 +8214,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
         <v>594</v>
       </c>
@@ -7411,15 +8242,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F720A-B8D2-437C-8F2E-D5618DCA3C1E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -7430,7 +8261,7 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7453,9 +8284,9 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>102</v>
@@ -7464,15 +8295,15 @@
         <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
@@ -7483,73 +8314,73 @@
         <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>645</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="81">
       <c r="A4" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="81">
       <c r="A5" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -7561,6 +8392,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -7568,7 +8589,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -7580,7 +8601,7 @@
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7606,7 +8627,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -7628,7 +8649,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -7650,7 +8671,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -7672,7 +8693,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="67.5">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -7696,7 +8717,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -7718,7 +8739,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -7730,7 +8751,7 @@
         <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>351</v>
@@ -7747,15 +8768,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -7767,7 +8788,7 @@
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7793,7 +8814,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -7813,7 +8834,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -7824,7 +8845,9 @@
       <c r="D3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="F3" s="19" t="s">
         <v>355</v>
       </c>
@@ -7833,7 +8856,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -7845,7 +8868,7 @@
         <v>143</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="13" t="s">
@@ -7853,7 +8876,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -7865,7 +8888,7 @@
         <v>142</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13" t="s">
@@ -7873,7 +8896,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="81">
       <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
@@ -7899,7 +8922,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="9" t="s">
         <v>424</v>
       </c>
@@ -7911,7 +8934,7 @@
         <v>425</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>626</v>
@@ -7921,7 +8944,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -7945,7 +8968,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="9" t="s">
         <v>387</v>
       </c>
@@ -7967,7 +8990,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -7979,7 +9002,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
@@ -7987,7 +9010,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -8009,7 +9032,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -8031,7 +9054,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -8053,7 +9076,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="9" t="s">
         <v>384</v>
       </c>
@@ -8075,7 +9098,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -8097,7 +9120,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
@@ -8109,7 +9132,7 @@
         <v>140</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="13" t="s">
@@ -8117,7 +9140,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -8145,15 +9168,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D23"/>
+      <selection activeCell="D2" sqref="D2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -8164,7 +9187,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="30" t="s">
         <v>106</v>
       </c>
@@ -8190,7 +9213,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="5" t="s">
         <v>245</v>
       </c>
@@ -8210,7 +9233,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="5" t="s">
         <v>247</v>
       </c>
@@ -8221,7 +9244,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>265</v>
@@ -8234,7 +9257,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
@@ -8256,7 +9279,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>249</v>
       </c>
@@ -8278,7 +9301,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>251</v>
       </c>
@@ -8300,7 +9323,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="5" t="s">
         <v>253</v>
       </c>
@@ -8322,7 +9345,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="5" t="s">
         <v>356</v>
       </c>
@@ -8334,7 +9357,7 @@
         <v>359</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>357</v>
@@ -8344,7 +9367,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="27">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -8353,10 +9376,10 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>357</v>
@@ -8366,7 +9389,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="40.5">
       <c r="A10" s="5" t="s">
         <v>255</v>
       </c>
@@ -8380,7 +9403,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="17" t="s">
@@ -8388,7 +9411,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="81">
       <c r="A11" s="5" t="s">
         <v>256</v>
       </c>
@@ -8399,7 +9422,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>392</v>
@@ -8412,7 +9435,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>257</v>
       </c>
@@ -8423,10 +9446,10 @@
         <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="17" t="s">
@@ -8434,7 +9457,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="27">
       <c r="A13" s="5" t="s">
         <v>258</v>
       </c>
@@ -8448,7 +9471,7 @@
         <v>114</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>358</v>
@@ -8458,7 +9481,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>259</v>
       </c>
@@ -8467,7 +9490,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>271</v>
@@ -8480,7 +9503,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>474</v>
       </c>
@@ -8502,7 +9525,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>260</v>
       </c>
@@ -8511,7 +9534,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>272</v>
@@ -8524,7 +9547,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>261</v>
       </c>
@@ -8535,7 +9558,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>270</v>
@@ -8548,7 +9571,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -8557,10 +9580,10 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>357</v>
@@ -8570,7 +9593,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>262</v>
       </c>
@@ -8581,10 +9604,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>357</v>
@@ -8594,7 +9617,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>263</v>
       </c>
@@ -8603,10 +9626,10 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="17" t="s">
@@ -8614,7 +9637,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>264</v>
       </c>
@@ -8625,10 +9648,10 @@
         <v>109</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="17" t="s">
@@ -8636,7 +9659,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>453</v>
       </c>
@@ -8645,10 +9668,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>357</v>
@@ -8658,7 +9681,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>454</v>
       </c>
@@ -8667,10 +9690,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>357</v>
@@ -8687,7 +9710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C99354-3975-4F6A-8BC5-5217D0CC05C4}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -8695,7 +9718,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -8704,7 +9727,7 @@
     <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8721,7 +9744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="27">
       <c r="A2" s="9" t="s">
         <v>100</v>
       </c>
@@ -8738,7 +9761,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -8753,7 +9776,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
@@ -8768,7 +9791,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="54">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
@@ -8785,7 +9808,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -8802,7 +9825,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -8817,7 +9840,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -8841,15 +9864,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+      <selection activeCell="D2" sqref="D2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -8860,7 +9883,7 @@
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -8883,7 +9906,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>423</v>
       </c>
@@ -8902,7 +9925,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
@@ -8925,7 +9948,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -8940,13 +9963,13 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="40.5">
       <c r="A5" s="51" t="s">
         <v>39</v>
       </c>
@@ -8969,7 +9992,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="51" t="s">
         <v>30</v>
       </c>
@@ -8990,7 +10013,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="40.5">
       <c r="A7" s="51" t="s">
         <v>31</v>
       </c>
@@ -9011,7 +10034,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="40.5">
       <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
@@ -9032,7 +10055,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="51" t="s">
         <v>33</v>
       </c>
@@ -9053,7 +10076,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1">
       <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
@@ -9076,7 +10099,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="51" t="s">
         <v>426</v>
       </c>
@@ -9091,13 +10114,13 @@
         <v>429</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="40.5">
       <c r="A12" s="51" t="s">
         <v>4</v>
       </c>
@@ -9120,7 +10143,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -9143,7 +10166,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="40.5">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -9164,7 +10187,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="40.5">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -9187,7 +10210,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="67.5">
       <c r="A16" s="9" t="s">
         <v>89</v>
       </c>
@@ -9198,7 +10221,7 @@
         <v>109</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>342</v>
@@ -9210,7 +10233,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="54">
       <c r="A17" s="51" t="s">
         <v>91</v>
       </c>
@@ -9222,7 +10245,7 @@
         <v>394</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>360</v>
@@ -9231,7 +10254,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="94.5">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -9242,7 +10265,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E18" s="55" t="s">
         <v>343</v>
@@ -9254,7 +10277,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="67.5">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -9266,7 +10289,7 @@
         <v>395</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>360</v>
@@ -9275,7 +10298,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
@@ -9296,7 +10319,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="27">
       <c r="A21" s="9" t="s">
         <v>396</v>
       </c>
@@ -9317,7 +10340,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="9" t="s">
         <v>450</v>
       </c>
@@ -9326,10 +10349,10 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>362</v>
@@ -9338,7 +10361,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
         <v>451</v>
       </c>
@@ -9347,19 +10370,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" ht="29.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9367,15 +10390,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4475453-F8A9-444B-9F7E-F19D36EE47F7}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -9386,7 +10409,7 @@
     <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="33">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9409,7 +10432,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
       <c r="A2" s="2" t="s">
         <v>430</v>
       </c>
@@ -9428,7 +10451,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9451,7 +10474,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -9466,13 +10489,13 @@
         <v>472</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="2" t="s">
         <v>178</v>
       </c>
@@ -9493,7 +10516,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>367</v>
       </c>
@@ -9514,7 +10537,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>368</v>
       </c>
@@ -9535,7 +10558,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>179</v>
       </c>
@@ -9556,7 +10579,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>369</v>
       </c>
@@ -9577,7 +10600,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
@@ -9591,14 +10614,14 @@
         <v>244</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>431</v>
       </c>
@@ -9610,16 +10633,16 @@
         <v>428</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -9642,7 +10665,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +10688,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>181</v>
       </c>
@@ -9686,7 +10709,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -9700,14 +10723,14 @@
         <v>170</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>370</v>
       </c>
@@ -9718,10 +10741,10 @@
         <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>364</v>
@@ -9730,7 +10753,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>371</v>
       </c>
@@ -9742,14 +10765,14 @@
         <v>172</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>372</v>
       </c>
@@ -9761,7 +10784,7 @@
         <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>364</v>
@@ -9770,7 +10793,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>183</v>
       </c>
@@ -9781,17 +10804,17 @@
         <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="2" t="s">
         <v>184</v>
       </c>
@@ -9814,7 +10837,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>363</v>
       </c>
@@ -9826,14 +10849,14 @@
         <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="13" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -9856,7 +10879,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
         <v>450</v>
       </c>
@@ -9865,10 +10888,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>452</v>
@@ -9877,7 +10900,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>451</v>
       </c>
@@ -9886,58 +10909,58 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="243">
       <c r="A25" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -9947,15 +10970,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8880DA-C854-48C9-B99A-4270A7A1A9A2}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -9966,7 +10989,7 @@
     <col min="8" max="8" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -9992,413 +11015,413 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>698</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
         <v>699</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>697</v>
-      </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>700</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>702</v>
-      </c>
       <c r="F3" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>704</v>
-      </c>
       <c r="B7" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G7" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>705</v>
-      </c>
       <c r="B8" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
         <v>705</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>706</v>
-      </c>
       <c r="B9" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>246</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>415</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>660</v>
-      </c>
       <c r="B12" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G12" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>661</v>
-      </c>
       <c r="B13" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>662</v>
-      </c>
       <c r="B14" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>663</v>
-      </c>
       <c r="B15" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
         <v>663</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>664</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G16" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
         <v>665</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>666</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>507</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>667</v>
-      </c>
       <c r="B19" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -10412,590 +11435,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/JBUH/감염병_CDM_ETL정의서.xlsx
+++ b/JBUH/감염병_CDM_ETL정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Infectious_CDM\JBUH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC6B7A-0068-4107-9FE0-86CEE014B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2E966-70BC-4E49-B478-84CE84A7CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" tabRatio="855" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="1290" windowWidth="23970" windowHeight="17640" tabRatio="855" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의" sheetId="22" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="836">
   <si>
     <t>필드명</t>
   </si>
@@ -3245,12 +3245,21 @@
     <t>procedure_source_concept_id의 vocabulary값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>EXECTIME, ORDDATE
+RECTIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.10기준 EXECDT를 ACPTDT로 변경할 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4126,7 +4135,7 @@
       <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
@@ -4134,7 +4143,7 @@
     <col min="4" max="4" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>793</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="63">
         <v>1</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="63">
         <v>2</v>
       </c>
@@ -4174,7 +4183,7 @@
       </c>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="63">
         <v>3</v>
       </c>
@@ -4186,7 +4195,7 @@
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="63">
         <v>4</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="63">
         <v>5</v>
       </c>
@@ -4212,7 +4221,7 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="63">
         <v>6</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="63">
         <v>7</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="63">
         <v>8</v>
       </c>
@@ -4252,7 +4261,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="63">
         <v>9</v>
       </c>
@@ -4266,7 +4275,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="63">
         <v>10</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>11</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="63">
         <v>12</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="49.5">
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="63">
         <v>13</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="63">
         <v>14</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="63">
         <v>15</v>
       </c>
@@ -4363,7 +4372,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -4374,7 +4383,7 @@
     <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -4416,7 +4425,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>43</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>44</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>373</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>45</v>
       </c>
@@ -4546,7 +4555,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>374</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>432</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27">
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>48</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -4653,7 +4662,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -4676,7 +4685,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>462</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>90</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>375</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>591</v>
       </c>
@@ -4785,7 +4794,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>376</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>396</v>
       </c>
@@ -4850,7 +4859,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>467</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>450</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>451</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>458</v>
       </c>
@@ -4949,7 +4958,7 @@
       <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -4959,7 +4968,7 @@
     <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -4982,7 +4991,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>557</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33">
+    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>653</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33">
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>654</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>635</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>655</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>656</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>657</v>
       </c>
@@ -5129,7 +5138,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>658</v>
       </c>
@@ -5150,7 +5159,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>659</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>660</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>661</v>
       </c>
@@ -5213,7 +5222,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>662</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>663</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>664</v>
       </c>
@@ -5276,7 +5285,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>665</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>666</v>
       </c>
@@ -5318,7 +5327,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>667</v>
       </c>
@@ -5343,7 +5352,7 @@
       <selection activeCell="D2" sqref="D2:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -5354,7 +5363,7 @@
     <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>639</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>411</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -5424,7 +5433,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -5446,7 +5455,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
@@ -5470,7 +5479,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -5492,7 +5501,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>377</v>
       </c>
@@ -5514,7 +5523,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
@@ -5536,7 +5545,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>71</v>
       </c>
@@ -5558,7 +5567,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>72</v>
       </c>
@@ -5578,7 +5587,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
@@ -5602,7 +5611,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>435</v>
       </c>
@@ -5624,7 +5633,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -5644,7 +5653,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
@@ -5664,7 +5673,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>378</v>
       </c>
@@ -5686,7 +5695,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>379</v>
       </c>
@@ -5708,7 +5717,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>76</v>
       </c>
@@ -5728,7 +5737,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>77</v>
       </c>
@@ -5750,7 +5759,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>79</v>
       </c>
@@ -5770,7 +5779,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +5803,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>470</v>
       </c>
@@ -5816,7 +5825,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -5840,7 +5849,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>90</v>
       </c>
@@ -5862,7 +5871,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -5884,7 +5893,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>404</v>
       </c>
@@ -5906,7 +5915,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>631</v>
       </c>
@@ -5928,7 +5937,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
@@ -5952,7 +5961,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -5972,7 +5981,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -5994,7 +6003,7 @@
       </c>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>380</v>
       </c>
@@ -6012,7 +6021,7 @@
       </c>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:8" ht="27">
+    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>396</v>
       </c>
@@ -6034,7 +6043,7 @@
       </c>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>467</v>
       </c>
@@ -6056,7 +6065,7 @@
       </c>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>450</v>
       </c>
@@ -6078,7 +6087,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>451</v>
       </c>
@@ -6100,7 +6109,7 @@
       </c>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>604</v>
       </c>
@@ -6122,7 +6131,7 @@
       </c>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>480</v>
       </c>
@@ -6144,7 +6153,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>482</v>
       </c>
@@ -6166,7 +6175,7 @@
       </c>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>483</v>
       </c>
@@ -6188,7 +6197,7 @@
       </c>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>484</v>
       </c>
@@ -6210,7 +6219,7 @@
       </c>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>485</v>
       </c>
@@ -6232,7 +6241,7 @@
       </c>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>486</v>
       </c>
@@ -6254,7 +6263,7 @@
       </c>
       <c r="H41" s="24"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>597</v>
       </c>
@@ -6276,7 +6285,7 @@
       </c>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>407</v>
       </c>
@@ -6298,7 +6307,7 @@
       </c>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>408</v>
       </c>
@@ -6320,7 +6329,7 @@
       </c>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>601</v>
       </c>
@@ -6353,11 +6362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -6369,7 +6378,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
@@ -6415,7 +6424,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="59"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="57" customHeight="1">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -6439,7 +6448,7 @@
       </c>
       <c r="H3" s="59"/>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -6461,7 +6470,7 @@
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="148.5">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -6485,7 +6494,7 @@
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="54">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -6503,11 +6512,13 @@
         <v>494</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="54">
+        <v>834</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
@@ -6527,9 +6538,11 @@
       <c r="G7" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="27">
+      <c r="H7" s="59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
@@ -6547,7 +6560,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -6567,7 +6580,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="59"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>437</v>
       </c>
@@ -6589,7 +6602,7 @@
       </c>
       <c r="H10" s="59"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="67.5">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>443</v>
       </c>
@@ -6613,7 +6626,7 @@
       </c>
       <c r="H11" s="59"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>440</v>
       </c>
@@ -6635,7 +6648,7 @@
       </c>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="40.5">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
@@ -6657,7 +6670,7 @@
       </c>
       <c r="H13" s="59"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="40.5">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>441</v>
       </c>
@@ -6681,7 +6694,7 @@
       </c>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>439</v>
       </c>
@@ -6703,7 +6716,7 @@
       </c>
       <c r="H15" s="59"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>221</v>
       </c>
@@ -6727,7 +6740,7 @@
       </c>
       <c r="H16" s="59"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>742</v>
       </c>
@@ -6749,7 +6762,7 @@
       </c>
       <c r="H17" s="59"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
@@ -6771,7 +6784,7 @@
       </c>
       <c r="H18" s="59"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
@@ -6793,7 +6806,7 @@
       </c>
       <c r="H19" s="59"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="27">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -6817,7 +6830,7 @@
       </c>
       <c r="H20" s="59"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>470</v>
       </c>
@@ -6837,7 +6850,7 @@
       </c>
       <c r="H21" s="59"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -6857,7 +6870,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>90</v>
       </c>
@@ -6877,7 +6890,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="59"/>
     </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="40.5">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -6899,7 +6912,7 @@
       </c>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>414</v>
       </c>
@@ -6921,7 +6934,7 @@
       </c>
       <c r="H25" s="59"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>631</v>
       </c>
@@ -6943,7 +6956,7 @@
       </c>
       <c r="H26" s="59"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -6963,7 +6976,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="59"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>93</v>
       </c>
@@ -6985,7 +6998,7 @@
       </c>
       <c r="H28" s="59"/>
     </row>
-    <row r="29" spans="1:8" ht="40.5">
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
@@ -7007,7 +7020,7 @@
       </c>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>380</v>
       </c>
@@ -7025,7 +7038,7 @@
       </c>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="27">
+    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>396</v>
       </c>
@@ -7047,7 +7060,7 @@
       </c>
       <c r="H31" s="21"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>498</v>
       </c>
@@ -7069,7 +7082,7 @@
       </c>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>499</v>
       </c>
@@ -7091,7 +7104,7 @@
       </c>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>467</v>
       </c>
@@ -7113,7 +7126,7 @@
       </c>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>450</v>
       </c>
@@ -7135,7 +7148,7 @@
       </c>
       <c r="H35" s="21"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>451</v>
       </c>
@@ -7157,7 +7170,7 @@
       </c>
       <c r="H36" s="21"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>506</v>
       </c>
@@ -7179,7 +7192,7 @@
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>604</v>
       </c>
@@ -7201,7 +7214,7 @@
       </c>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>609</v>
       </c>
@@ -7223,7 +7236,7 @@
       </c>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>610</v>
       </c>
@@ -7245,7 +7258,7 @@
       </c>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>611</v>
       </c>
@@ -7267,7 +7280,7 @@
       </c>
       <c r="H41" s="21"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>612</v>
       </c>
@@ -7289,7 +7302,7 @@
       </c>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>597</v>
       </c>
@@ -7311,7 +7324,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>509</v>
       </c>
@@ -7333,7 +7346,7 @@
       </c>
       <c r="H44" s="21"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>510</v>
       </c>
@@ -7355,7 +7368,7 @@
       </c>
       <c r="H45" s="21"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>580</v>
       </c>
@@ -7388,11 +7401,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -7403,7 +7416,7 @@
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -7426,7 +7439,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>61</v>
       </c>
@@ -7445,7 +7458,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
@@ -7468,7 +7481,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -7489,7 +7502,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>62</v>
       </c>
@@ -7512,7 +7525,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="54">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
@@ -7533,7 +7546,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="54">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
@@ -7554,7 +7567,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>623</v>
       </c>
@@ -7571,7 +7584,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>446</v>
       </c>
@@ -7594,7 +7607,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>445</v>
       </c>
@@ -7613,7 +7626,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>65</v>
       </c>
@@ -7634,7 +7647,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -7653,7 +7666,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -7676,7 +7689,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>470</v>
       </c>
@@ -7695,7 +7708,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
@@ -7716,7 +7729,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
@@ -7737,7 +7750,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="27">
+    <row r="17" spans="1:7" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>419</v>
       </c>
@@ -7758,7 +7771,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="18" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>420</v>
       </c>
@@ -7777,7 +7790,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="19" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>631</v>
       </c>
@@ -7798,7 +7811,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5">
+    <row r="20" spans="1:7" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
@@ -7819,7 +7832,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>86</v>
       </c>
@@ -7838,7 +7851,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>380</v>
       </c>
@@ -7857,7 +7870,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27">
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>396</v>
       </c>
@@ -7878,7 +7891,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>498</v>
       </c>
@@ -7899,7 +7912,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>499</v>
       </c>
@@ -7920,7 +7933,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27">
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>467</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27">
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>450</v>
       </c>
@@ -7962,7 +7975,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>451</v>
       </c>
@@ -7983,7 +7996,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27">
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>480</v>
       </c>
@@ -8004,7 +8017,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27">
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>506</v>
       </c>
@@ -8025,7 +8038,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>586</v>
       </c>
@@ -8046,7 +8059,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27">
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>604</v>
       </c>
@@ -8067,7 +8080,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>609</v>
       </c>
@@ -8088,7 +8101,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>610</v>
       </c>
@@ -8109,7 +8122,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>611</v>
       </c>
@@ -8130,7 +8143,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>612</v>
       </c>
@@ -8151,7 +8164,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27">
+    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>597</v>
       </c>
@@ -8172,7 +8185,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>580</v>
       </c>
@@ -8193,7 +8206,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>581</v>
       </c>
@@ -8214,7 +8227,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>594</v>
       </c>
@@ -8250,7 +8263,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -8261,7 +8274,7 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8284,7 +8297,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>640</v>
       </c>
@@ -8303,7 +8316,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>29</v>
       </c>
@@ -8326,7 +8339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="81">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>641</v>
       </c>
@@ -8347,7 +8360,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="81">
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>642</v>
       </c>
@@ -8368,7 +8381,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>643</v>
       </c>
@@ -8397,7 +8410,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
@@ -8406,7 +8419,7 @@
     <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -8423,7 +8436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
@@ -8440,7 +8453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -8455,7 +8468,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -8470,7 +8483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27">
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -8500,7 +8513,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
@@ -8530,7 +8543,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -8545,7 +8558,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>156</v>
       </c>
@@ -8560,7 +8573,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>157</v>
       </c>
@@ -8589,7 +8602,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -8601,7 +8614,7 @@
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -8649,7 +8662,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -8671,7 +8684,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="27">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -8693,7 +8706,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="67.5">
+    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -8717,7 +8730,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -8739,7 +8752,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
@@ -8776,7 +8789,7 @@
       <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -8788,7 +8801,7 @@
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -8814,7 +8827,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -8834,7 +8847,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -8856,7 +8869,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -8876,7 +8889,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -8896,7 +8909,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="81">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
@@ -8922,7 +8935,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>424</v>
       </c>
@@ -8944,7 +8957,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -8968,7 +8981,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>387</v>
       </c>
@@ -8990,7 +9003,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -9010,7 +9023,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -9032,7 +9045,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
@@ -9054,7 +9067,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -9076,7 +9089,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>384</v>
       </c>
@@ -9098,7 +9111,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -9120,7 +9133,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
@@ -9140,7 +9153,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9189,7 @@
       <selection activeCell="D2" sqref="D2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -9187,7 +9200,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>106</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>245</v>
       </c>
@@ -9233,7 +9246,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="27">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>247</v>
       </c>
@@ -9257,7 +9270,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="27">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
@@ -9279,7 +9292,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>249</v>
       </c>
@@ -9301,7 +9314,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>251</v>
       </c>
@@ -9323,7 +9336,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="27">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>253</v>
       </c>
@@ -9345,7 +9358,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>356</v>
       </c>
@@ -9367,7 +9380,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="27">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +9402,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="40.5">
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>255</v>
       </c>
@@ -9411,7 +9424,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="81">
+    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>256</v>
       </c>
@@ -9435,7 +9448,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>257</v>
       </c>
@@ -9457,7 +9470,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="27">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>258</v>
       </c>
@@ -9481,7 +9494,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>259</v>
       </c>
@@ -9503,7 +9516,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>474</v>
       </c>
@@ -9525,7 +9538,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>260</v>
       </c>
@@ -9547,7 +9560,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>261</v>
       </c>
@@ -9571,7 +9584,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -9593,7 +9606,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>262</v>
       </c>
@@ -9617,7 +9630,7 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>263</v>
       </c>
@@ -9637,7 +9650,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>264</v>
       </c>
@@ -9659,7 +9672,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>453</v>
       </c>
@@ -9681,7 +9694,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>454</v>
       </c>
@@ -9718,7 +9731,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
@@ -9727,7 +9740,7 @@
     <col min="5" max="5" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9744,7 +9757,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>100</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -9776,7 +9789,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
@@ -9791,7 +9804,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="54">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
@@ -9808,7 +9821,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -9825,7 +9838,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
@@ -9840,7 +9853,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
@@ -9872,7 +9885,7 @@
       <selection activeCell="D2" sqref="D2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -9883,7 +9896,7 @@
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -9906,7 +9919,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>423</v>
       </c>
@@ -9925,7 +9938,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
@@ -9948,7 +9961,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -9969,7 +9982,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>39</v>
       </c>
@@ -9992,7 +10005,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5">
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>30</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5">
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>31</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40.5">
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>32</v>
       </c>
@@ -10055,7 +10068,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40.5">
+    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>33</v>
       </c>
@@ -10076,7 +10089,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>34</v>
       </c>
@@ -10099,7 +10112,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>426</v>
       </c>
@@ -10120,7 +10133,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>4</v>
       </c>
@@ -10143,7 +10156,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
@@ -10166,7 +10179,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40.5">
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40.5">
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
@@ -10210,7 +10223,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="67.5">
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>89</v>
       </c>
@@ -10233,7 +10246,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54">
+    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>91</v>
       </c>
@@ -10254,7 +10267,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="94.5">
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -10277,7 +10290,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="67.5">
+    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -10298,7 +10311,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.25" customHeight="1">
+    <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
@@ -10319,7 +10332,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27">
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>396</v>
       </c>
@@ -10340,7 +10353,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>450</v>
       </c>
@@ -10361,7 +10374,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>451</v>
       </c>
@@ -10382,7 +10395,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.25" customHeight="1"/>
+    <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10398,7 +10411,7 @@
       <selection activeCell="D2" sqref="D2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
@@ -10409,7 +10422,7 @@
     <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10432,7 +10445,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5">
+    <row r="2" spans="1:7" s="14" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>430</v>
       </c>
@@ -10451,7 +10464,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -10474,7 +10487,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>474</v>
       </c>
@@ -10495,7 +10508,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>178</v>
       </c>
@@ -10516,7 +10529,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>367</v>
       </c>
@@ -10537,7 +10550,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>368</v>
       </c>
@@ -10558,7 +10571,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>179</v>
       </c>
@@ -10579,7 +10592,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>369</v>
       </c>
@@ -10600,7 +10613,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
@@ -10621,7 +10634,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>431</v>
       </c>
@@ -10642,7 +10655,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -10665,7 +10678,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -10688,7 +10701,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>181</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -10730,7 +10743,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>370</v>
       </c>
@@ -10753,7 +10766,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>371</v>
       </c>
@@ -10772,7 +10785,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>372</v>
       </c>
@@ -10793,7 +10806,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>183</v>
       </c>
@@ -10814,7 +10827,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27">
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>184</v>
       </c>
@@ -10837,7 +10850,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>363</v>
       </c>
@@ -10856,7 +10869,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -10879,7 +10892,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>450</v>
       </c>
@@ -10900,7 +10913,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>451</v>
       </c>
@@ -10921,7 +10934,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="243">
+    <row r="25" spans="1:7" ht="243" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>785</v>
       </c>
@@ -10942,7 +10955,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>787</v>
       </c>
@@ -10978,7 +10991,7 @@
       <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -10989,7 +11002,7 @@
     <col min="8" max="8" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -11015,7 +11028,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>696</v>
       </c>
@@ -11037,7 +11050,7 @@
       </c>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>699</v>
       </c>
@@ -11059,7 +11072,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>653</v>
       </c>
@@ -11081,7 +11094,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>654</v>
       </c>
@@ -11103,7 +11116,7 @@
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>702</v>
       </c>
@@ -11127,7 +11140,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>703</v>
       </c>
@@ -11151,7 +11164,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>704</v>
       </c>
@@ -11175,7 +11188,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>705</v>
       </c>
@@ -11199,7 +11212,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>657</v>
       </c>
@@ -11221,7 +11234,7 @@
       </c>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>658</v>
       </c>
@@ -11243,7 +11256,7 @@
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>659</v>
       </c>
@@ -11265,7 +11278,7 @@
       </c>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>660</v>
       </c>
@@ -11287,7 +11300,7 @@
       </c>
       <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>661</v>
       </c>
@@ -11309,7 +11322,7 @@
       </c>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>662</v>
       </c>
@@ -11331,7 +11344,7 @@
       </c>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>663</v>
       </c>
@@ -11353,7 +11366,7 @@
       </c>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>664</v>
       </c>
@@ -11375,7 +11388,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>665</v>
       </c>
@@ -11397,7 +11410,7 @@
       </c>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>666</v>
       </c>
@@ -11419,7 +11432,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>766</v>
       </c>
